--- a/public/tfg.xlsx
+++ b/public/tfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leirelitwin/Desktop/DATABASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leirelitwin/Documents/GitHub/mooc-tfg/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>M2</t>
   </si>
@@ -221,7 +221,61 @@
     <t>totalMOOCS</t>
   </si>
   <si>
-    <t>ranking</t>
+    <t>ranking10</t>
+  </si>
+  <si>
+    <t>ranking2</t>
+  </si>
+  <si>
+    <t>ranking9</t>
+  </si>
+  <si>
+    <t>San Francisco State University</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Cape Town University</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Melbourne University</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Hong Kong University</t>
+  </si>
+  <si>
+    <t>Hong-Kong</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Asia</t>
   </si>
 </sst>
 </file>
@@ -282,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -290,12 +344,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -303,7 +360,43 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -561,17 +654,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:N38" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:N38"/>
-  <sortState ref="A2:M39">
-    <sortCondition descending="1" ref="M1:M39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table3" displayName="Table3" ref="A1:P42" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:P42"/>
+  <sortState ref="A2:P38">
+    <sortCondition ref="P1:P38"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="16">
     <tableColumn id="1" name="universityName"/>
     <tableColumn id="2" name="country"/>
     <tableColumn id="8" name="countryCode"/>
     <tableColumn id="14" name="continent"/>
-    <tableColumn id="3" name="universitySize" dataDxfId="5"/>
+    <tableColumn id="3" name="universitySize" dataDxfId="7"/>
     <tableColumn id="4" name="universitySizeValue">
       <calculatedColumnFormula>IF(E2&lt;=5000,1,IF(E2&lt;=15000,2,IF(E2&lt;=25000,3,IF(E2&lt;=35000,4,5))))</calculatedColumnFormula>
     </tableColumn>
@@ -580,19 +673,21 @@
     </tableColumn>
     <tableColumn id="6" name="courseraMOOCS"/>
     <tableColumn id="7" name="edXMOOCS"/>
-    <tableColumn id="13" name="totalMOOCS" dataDxfId="4">
+    <tableColumn id="13" name="totalMOOCS" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="M2" dataDxfId="3">
+    <tableColumn id="9" name="M2" dataDxfId="5">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="M9" dataDxfId="2">
+    <tableColumn id="16" name="ranking2" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="10" name="M9" dataDxfId="3">
       <calculatedColumnFormula>EXP(-Table3[[#This Row],[M2]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" name="ranking9" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="11" name="M10" dataDxfId="1">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="ranking" dataDxfId="0"/>
+    <tableColumn id="5" name="ranking10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -861,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +969,7 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -909,16 +1004,22 @@
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -953,19 +1054,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>2.539140486761061</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>7.893421564554004E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="5">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>68.980622562183584</v>
       </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1000,19 +1107,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.84638016225368706</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.42896490829169481</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="5">
+        <v>32</v>
+      </c>
+      <c r="O3" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>46.303305149198749</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1051,19 +1164,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>4.4660643468082188</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>1.1492457287923533E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="5">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>39.666522162177948</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1098,19 +1217,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.43957533332962034</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.64430997996724504</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="5">
+        <v>27</v>
+      </c>
+      <c r="O5" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>32.461469441027575</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1148,19 +1273,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.11454509898445295</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
+        <v>22</v>
+      </c>
+      <c r="M6" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.89177171951230227</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="5">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>18.452748767102332</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1195,19 +1326,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.8120116994196761</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.44396404506171155</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="5">
+        <v>30</v>
+      </c>
+      <c r="O7" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>16.342342993834851</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1242,19 +1379,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>3.3689734995427337E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
+        <v>31</v>
+      </c>
+      <c r="M8" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.96687144447782469</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>13.618619161529043</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1289,19 +1432,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>3.3689734995427337E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
+        <v>32</v>
+      </c>
+      <c r="M9" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.96687144447782469</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>13.618619161529043</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1336,19 +1485,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>1.0826822658929016</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.33868586067616541</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="5">
+        <v>33</v>
+      </c>
+      <c r="O10" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>11.958490661408343</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1384,19 +1539,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>5.3903575992683736E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.94752346610672611</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="5">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>11.958490661408343</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1431,19 +1592,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>5.3903575992683736E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
+        <v>26</v>
+      </c>
+      <c r="M12" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.94752346610672611</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="5">
+        <v>12</v>
+      </c>
+      <c r="O12" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>8.5800654500337306</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1478,19 +1645,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>4.7165628993598274E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.95392938614090339</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="5">
+        <v>8</v>
+      </c>
+      <c r="O13" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>8.4309558226434085</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1525,19 +1698,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>1.0826822658929016</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
+        <v>5</v>
+      </c>
+      <c r="M14" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.33868586067616541</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="5">
+        <v>34</v>
+      </c>
+      <c r="O14" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>8.3098498630279813</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1572,19 +1751,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>5.3903575992683736E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
+        <v>27</v>
+      </c>
+      <c r="M15" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.94752346610672611</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="5">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>8.2766768538249433</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1619,19 +1804,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>1.103638323514327</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.33166219151100518</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="5">
+        <v>35</v>
+      </c>
+      <c r="O16" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>8.1711714969174256</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1666,19 +1857,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.10989383333240509</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
+        <v>23</v>
+      </c>
+      <c r="M17" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.89592924807020424</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="5">
+        <v>15</v>
+      </c>
+      <c r="O17" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>6.6842864723188056</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1713,19 +1910,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.8120116994196761</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
+        <v>8</v>
+      </c>
+      <c r="M18" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.44396404506171155</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="5">
+        <v>31</v>
+      </c>
+      <c r="O18" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>6.551928732169185</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1760,19 +1963,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.2489353418393197</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
+        <v>18</v>
+      </c>
+      <c r="M19" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.77963038122150408</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="5">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>6.0221113018881489</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1807,19 +2016,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>2.6951787996341868E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
+        <v>34</v>
+      </c>
+      <c r="M20" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.97340817035133109</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="5">
+        <v>4</v>
+      </c>
+      <c r="O20" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>5.9792453307041713</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1857,19 +2072,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>3.3689734995427337E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.96687144447782469</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="5">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>5.4927987295858687</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1904,19 +2125,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.73575888234288467</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
+        <v>9</v>
+      </c>
+      <c r="M22" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.47914170878801532</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="5">
+        <v>28</v>
+      </c>
+      <c r="O22" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>3.6515333693191949</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1951,19 +2178,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.73575888234288467</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.47914170878801532</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="5">
+        <v>29</v>
+      </c>
+      <c r="O23" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>3.6515333693191949</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1998,19 +2231,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.40600584970983805</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="5">
+        <v>12</v>
+      </c>
+      <c r="M24" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.66630626971514506</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="5">
+        <v>26</v>
+      </c>
+      <c r="O24" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>3.3354656295195926</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2046,19 +2285,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
+        <v>13</v>
+      </c>
+      <c r="M25" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.69220062755534639</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="5">
+        <v>22</v>
+      </c>
+      <c r="O25" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2093,19 +2338,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
+        <v>14</v>
+      </c>
+      <c r="M26" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.69220062755534639</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="5">
+        <v>23</v>
+      </c>
+      <c r="O26" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2140,19 +2391,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.69220062755534639</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="5">
+        <v>24</v>
+      </c>
+      <c r="O27" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2187,19 +2444,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.36787944117144233</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
+        <v>16</v>
+      </c>
+      <c r="M28" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.69220062755534639</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="5">
+        <v>25</v>
+      </c>
+      <c r="O28" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2234,19 +2497,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
+        <v>19</v>
+      </c>
+      <c r="M29" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.87342301849311665</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="5">
+        <v>17</v>
+      </c>
+      <c r="O29" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2281,19 +2550,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>4.9787068367863944E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
+        <v>28</v>
+      </c>
+      <c r="M30" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.95143199290045344</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="5">
+        <v>9</v>
+      </c>
+      <c r="O30" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7237238323058088</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2328,19 +2603,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.2706705664732254</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
+        <v>17</v>
+      </c>
+      <c r="M31" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.7628677692336272</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="5">
+        <v>21</v>
+      </c>
+      <c r="O31" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.7051224534189644</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2375,19 +2656,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>9.9574136735727889E-2</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
+        <v>24</v>
+      </c>
+      <c r="M32" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.90522283711452844</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="5">
+        <v>14</v>
+      </c>
+      <c r="O32" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>2.3801111316407253</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2422,19 +2709,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
+        <v>20</v>
+      </c>
+      <c r="M33" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.87342301849311665</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="5">
+        <v>18</v>
+      </c>
+      <c r="O33" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>1.4948113326760428</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2469,19 +2762,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
+        <v>21</v>
+      </c>
+      <c r="M34" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.87342301849311665</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="5">
+        <v>19</v>
+      </c>
+      <c r="O34" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>1.4948113326760428</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2516,19 +2815,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>6.737946999085467E-3</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
+        <v>35</v>
+      </c>
+      <c r="M35" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.99328470206784147</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="5">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>1.3525612267094822</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2563,19 +2868,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>6.737946999085467E-3</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="5">
+        <v>36</v>
+      </c>
+      <c r="M36" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.99328470206784147</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="5">
+        <v>3</v>
+      </c>
+      <c r="O36" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>1.2238480081113581</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2610,19 +2921,25 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>4.9787068367863944E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="5">
+        <v>29</v>
+      </c>
+      <c r="M37" s="4">
         <f>EXP(-Table3[[#This Row],[M2]])</f>
         <v>0.95143199290045344</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="5">
+        <v>10</v>
+      </c>
+      <c r="O37" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>1.0140984589384923</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2657,44 +2974,252 @@
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
         <v>0</v>
       </c>
-      <c r="L38" s="4">
-        <f>EXP(-Table3[[#This Row],[M2]])</f>
-        <v>1</v>
+      <c r="L38" s="5">
+        <v>37</v>
       </c>
       <c r="M38" s="4">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
         <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N47" s="2"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2">
+        <v>12610</v>
+      </c>
+      <c r="F39">
+        <f>IF(E39&lt;=5000,1,IF(E39&lt;=15000,2,IF(E39&lt;=25000,3,IF(E39&lt;=35000,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>800</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <v>13</v>
+      </c>
+      <c r="K39" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>1.759358682075965</v>
+      </c>
+      <c r="L39" s="5">
+        <v>38</v>
+      </c>
+      <c r="M39" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.17215523466557536</v>
+      </c>
+      <c r="N39" s="5">
+        <v>38</v>
+      </c>
+      <c r="O39" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>64.389421517136498</v>
+      </c>
+      <c r="P39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2">
+        <v>26610</v>
+      </c>
+      <c r="F40">
+        <f>IF(E40&lt;=5000,1,IF(E40&lt;=15000,2,IF(E40&lt;=25000,3,IF(E40&lt;=35000,4,5))))</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>501</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <v>10</v>
+      </c>
+      <c r="K40" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.18315638888734181</v>
+      </c>
+      <c r="L40" s="5">
+        <v>39</v>
+      </c>
+      <c r="M40" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.83263793023497767</v>
+      </c>
+      <c r="N40" s="5">
+        <v>39</v>
+      </c>
+      <c r="O40" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>27.237238323058087</v>
+      </c>
+      <c r="P40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2">
+        <v>48088</v>
+      </c>
+      <c r="F41">
+        <f>IF(E41&lt;=5000,1,IF(E41&lt;=15000,2,IF(E41&lt;=25000,3,IF(E41&lt;=35000,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>101</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <v>15</v>
+      </c>
+      <c r="K41" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>0.10106920498628201</v>
+      </c>
+      <c r="L41" s="5">
+        <v>40</v>
+      </c>
+      <c r="M41" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>0.90387047837729029</v>
+      </c>
+      <c r="N41" s="5">
+        <v>40</v>
+      </c>
+      <c r="O41" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>18.357720121670372</v>
+      </c>
+      <c r="P41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2">
+        <v>11088</v>
+      </c>
+      <c r="F42">
+        <f>IF(E42&lt;=5000,1,IF(E42&lt;=15000,2,IF(E42&lt;=25000,3,IF(E42&lt;=35000,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>101</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>19</v>
+      </c>
+      <c r="J42" s="6">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])</f>
+        <v>35</v>
+      </c>
+      <c r="K42" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(Table3[[#This Row],[universitySizeValue]])</f>
+        <v>4.7367349132814445</v>
+      </c>
+      <c r="L42" s="5">
+        <v>41</v>
+      </c>
+      <c r="M42" s="7">
+        <f>EXP(-Table3[[#This Row],[M2]])</f>
+        <v>8.7672252542509641E-3</v>
+      </c>
+      <c r="N42" s="5">
+        <v>41</v>
+      </c>
+      <c r="O42" s="7">
+        <f>SUM(Table3[[#This Row],[courseraMOOCS]:[edXMOOCS]])/EXP(-Table3[[#This Row],[shangaiRanking]]/500)</f>
+        <v>42.834680283897534</v>
+      </c>
+      <c r="P42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
